--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81487.9863042489</v>
+        <v>5510016.616294637</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81487.9863042489</v>
+        <v>5510016.616294637</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417564196.092493</v>
+        <v>51251466.86870347</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14302.02537884512</v>
+        <v>1106647.957554838</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28210.20879236609</v>
+        <v>2145344.887732465</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42118.392205887</v>
+        <v>3184041.817910093</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56330.26728269627</v>
+        <v>4220765.792036232</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70542.14235950554</v>
+        <v>5257489.76616237</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84740.30602376921</v>
+        <v>6295145.629336828</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98938.46968803287</v>
+        <v>7332801.492511281</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113136.6333522966</v>
+        <v>8370457.355685733</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127376.342848819</v>
+        <v>9404247.586511839</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141574.5065130827</v>
+        <v>10441903.44968629</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155772.6568382794</v>
+        <v>11479559.31286075</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>169970.8205025431</v>
+        <v>12517215.1760352</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184168.9798003365</v>
+        <v>13554871.03920967</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198973.7948129778</v>
+        <v>14531414.57014303</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>213825.380962776</v>
+        <v>15503101.31396294</v>
       </c>
     </row>
   </sheetData>
